--- a/s3_db/data/xlsx/internal_faq.xlsx
+++ b/s3_db/data/xlsx/internal_faq.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuu/repos/rag-streaming/s3_db/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuu/repos/rag-stream-manual/s3_db/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7117A8-AA5F-E14A-BE3C-BBBB78904D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302AF90D-823C-5540-ACDD-CAA30DC550A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="1760" windowWidth="22380" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="1760" windowWidth="22380" windowHeight="15200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -38,67 +38,16 @@
     <t>人事・労務</t>
   </si>
   <si>
-    <t>IT・システム</t>
-  </si>
-  <si>
     <t>勤務時間と休憩時間について</t>
   </si>
   <si>
     <t>有給休暇の取得方法と計算方法</t>
   </si>
   <si>
-    <t>育児休業・介護休業の申請方法</t>
-  </si>
-  <si>
-    <t>健康保険・年金の手続き方法</t>
-  </si>
-  <si>
-    <t>通勤手当の申請方法</t>
-  </si>
-  <si>
-    <t>社内ネットワークへのアクセス方法</t>
-  </si>
-  <si>
-    <t>メールアカウントの設定方法</t>
-  </si>
-  <si>
-    <t>社内システムの利用方法</t>
-  </si>
-  <si>
-    <t>パスワードの変更方法</t>
-  </si>
-  <si>
-    <t>IT機器の調整・トラブルシューティング方法</t>
-  </si>
-  <si>
     <t>通常の勤務時間は9:00-17:30で、休憩時間は12:00-13:00です。部署によって異なる場合がありますので、上司や人事部門に確認してください。</t>
   </si>
   <si>
     <t>有給休暇は、入社後6ヶ月間継続勤務し、全労働日の8割以上出勤した場合に5日間付与されます。その後は、勤務年数に応じて付与日数が増加します。有給休暇を取得する際は、事前に上司に申請し、承認を得る必要があります。</t>
-  </si>
-  <si>
-    <t>育児休業・介護休業を取得する場合は、事前に上司と相談の上、所定の申請事項を記入し、人事部門に提出してください。申請書は社内イントラネットからダウンロードできます。</t>
-  </si>
-  <si>
-    <t>入社時に健康保険と年金の加入手続きを行います。必要書類に記入し、人事部門に提出してください。扶養家族がいる場合は、扶養家族の情報も必要です。</t>
-  </si>
-  <si>
-    <t>通勤手当は、公共交通機関を利用している場合に支給されます。申請の際は、通勤経路を記入し、人事部門に提出してください。</t>
-  </si>
-  <si>
-    <t>社内ネットワークへのアクセスには、個人に割り当てられたIDとパスワードを使用します。初回ログイン時にパスワードを変更してください。社外からのアクセスにはVPNを使用します。</t>
-  </si>
-  <si>
-    <t>メールアカウントは、入社時に自動的に作成されます。初期パスワードは、社員番号の下6桁です。メールクライアントの設定方法については、IT部門のマニュアルを参照してください。</t>
-  </si>
-  <si>
-    <t>社内システムの利用方法については、各システムのマニュアルを参照してください。不明点がある場合は、IT部門にお問い合わせください。</t>
-  </si>
-  <si>
-    <t>パスワードは、3ヶ月ごとに変更が必要です。変更方法については、社内ネットのIT部門のページに記載されています。</t>
-  </si>
-  <si>
-    <t>IT機器の調整は、IT部門が担当します。必要機器がある場合は、上司の承認を得た上でIT部門に提出してください。機器のトラブルシューティングについては、IT部門のヘルプデスクにお問い合わせください。</t>
   </si>
   <si>
     <t>目次</t>
@@ -118,10 +67,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>IT・システム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. 勤務時間と休憩時間について</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -131,34 +76,6 @@
   </si>
   <si>
     <t>3. 育児休業・介護休業の申請方法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4. 健康保険・年金の手続き方法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5. 通勤手当の申請方法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>6. 社内ネットワークへのアクセス方法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7. メールアカウントの設定方法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>8. 社内システムの利用方法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>9. パスワードの変更方法</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10. IT機器の調整・トラブルシューティング方法</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -534,77 +451,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19D9BCD-5D75-5748-B7AC-47DAD0CC82EE}">
-  <dimension ref="A2:A16"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -615,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -650,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1">
@@ -664,122 +541,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
